--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
